--- a/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
@@ -16,33 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段水里社 小段0008-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段水里社 小段0008-0013 ±也號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水里社小段00080002地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水里社小段00080013±也號</t>
   </si>
   <si>
     <t>100分之10</t>
@@ -51,7 +72,7 @@
     <t>顏清標</t>
   </si>
   <si>
-    <t>83年11月 16日</t>
+    <t>83年11月16日</t>
   </si>
   <si>
     <t>買賣</t>
@@ -60,6 +81,18 @@
     <t>(超過五年）</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-11-28</t>
+  </si>
+  <si>
+    <t>tmp68961</t>
+  </si>
+  <si>
     <t>種類</t>
   </si>
   <si>
@@ -90,28 +123,28 @@
     <t>黃美貴</t>
   </si>
   <si>
-    <t>國泰世華銀行 臺北市信義區松仁路</t>
-  </si>
-  <si>
-    <t>華南銀行清水分行 臺中市清水區中山路</t>
-  </si>
-  <si>
-    <t>元營建設股份有限公司 臺中市沙鹿區北勢東路</t>
-  </si>
-  <si>
-    <t>5,707，475</t>
-  </si>
-  <si>
-    <t>85年05月 30日</t>
-  </si>
-  <si>
-    <t>84年07月 08日</t>
-  </si>
-  <si>
-    <t>97年10月 23日</t>
-  </si>
-  <si>
-    <t>85年11月 16日</t>
+    <t>國泰世華銀行臺北市信義區松仁路</t>
+  </si>
+  <si>
+    <t>華南銀行清水分行臺中市清水區中山路</t>
+  </si>
+  <si>
+    <t>元營建設股份有限公司臺中市沙鹿區北勢東路</t>
+  </si>
+  <si>
+    <t>5707475</t>
+  </si>
+  <si>
+    <t>85年05月30日</t>
+  </si>
+  <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>97年10月23日</t>
+  </si>
+  <si>
+    <t>85年11月16日</t>
   </si>
   <si>
     <t>短期放款</t>
@@ -120,10 +153,10 @@
     <t>繼承債務</t>
   </si>
   <si>
-    <t>繼承保證債 務</t>
-  </si>
-  <si>
-    <t>依據台灣台 北地方法院 97年10月 23曰北院隆 97執</t>
+    <t>繼承保證債務</t>
+  </si>
+  <si>
+    <t>依據台灣台北地方法院97年10月23曰北院隆97執</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -150,7 +183,7 @@
     <t>僑鴻建設股份有限公司</t>
   </si>
   <si>
-    <t>臺中市竹林里中山路紅竹巷 58號1樓</t>
+    <t>臺中市竹林里中山路紅竹巷58號1樓</t>
   </si>
   <si>
     <t>臺中市港卑路1段229號</t>
@@ -159,16 +192,16 @@
     <t>臺中市埔子里正義路1號</t>
   </si>
   <si>
-    <t>1，676，000</t>
-  </si>
-  <si>
-    <t>87年07月 15日</t>
-  </si>
-  <si>
-    <t>83年03月 16日</t>
-  </si>
-  <si>
-    <t>85年07月 13日</t>
+    <t>1676000</t>
+  </si>
+  <si>
+    <t>87年07月15日</t>
+  </si>
+  <si>
+    <t>83年03月16日</t>
+  </si>
+  <si>
+    <t>85年07月13日</t>
   </si>
   <si>
     <t>合資公司</t>
@@ -530,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,57 +591,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1527</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2">
+        <v>979</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1693</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>979</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -626,22 +722,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -649,22 +745,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -672,22 +768,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
         <v>8646484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -695,22 +791,22 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>9601734</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -718,22 +814,22 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2">
         <v>71062315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -741,22 +837,22 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>8961620</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -764,22 +860,22 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2">
         <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -787,22 +883,22 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -810,22 +906,22 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>24224554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -833,22 +929,22 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>5742274</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -866,22 +962,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -889,22 +985,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -912,22 +1008,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -935,22 +1031,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市龍井區龍目井段水里社小段00080002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市龍井區龍目井段水里社小段00080013±也號</t>
@@ -93,27 +96,21 @@
     <t>tmp68961</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>催收款</t>
   </si>
   <si>
+    <t>國泰世華銀行臺北市信義區松仁路</t>
+  </si>
+  <si>
+    <t>5707475</t>
+  </si>
+  <si>
+    <t>85年05月30日</t>
+  </si>
+  <si>
+    <t>短期放款</t>
+  </si>
+  <si>
     <t>長期擔保放款</t>
   </si>
   <si>
@@ -123,21 +120,12 @@
     <t>黃美貴</t>
   </si>
   <si>
-    <t>國泰世華銀行臺北市信義區松仁路</t>
-  </si>
-  <si>
     <t>華南銀行清水分行臺中市清水區中山路</t>
   </si>
   <si>
     <t>元營建設股份有限公司臺中市沙鹿區北勢東路</t>
   </si>
   <si>
-    <t>5707475</t>
-  </si>
-  <si>
-    <t>85年05月30日</t>
-  </si>
-  <si>
     <t>84年07月08日</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>85年11月16日</t>
   </si>
   <si>
-    <t>短期放款</t>
-  </si>
-  <si>
     <t>繼承債務</t>
   </si>
   <si>
@@ -162,49 +147,37 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>天台砂石股份有限公司</t>
   </si>
   <si>
+    <t>臺中市竹林里中山路紅竹巷58號1樓</t>
+  </si>
+  <si>
+    <t>1676000</t>
+  </si>
+  <si>
+    <t>87年07月15日</t>
+  </si>
+  <si>
+    <t>合資公司</t>
+  </si>
+  <si>
     <t>天馬瀝青股份有限公司</t>
   </si>
   <si>
     <t>僑鴻建設股份有限公司</t>
   </si>
   <si>
-    <t>臺中市竹林里中山路紅竹巷58號1樓</t>
-  </si>
-  <si>
     <t>臺中市港卑路1段229號</t>
   </si>
   <si>
     <t>臺中市埔子里正義路1號</t>
   </si>
   <si>
-    <t>1676000</t>
-  </si>
-  <si>
-    <t>87年07月15日</t>
-  </si>
-  <si>
     <t>83年03月16日</t>
   </si>
   <si>
     <t>85年07月13日</t>
-  </si>
-  <si>
-    <t>合資公司</t>
   </si>
 </sst>
 </file>
@@ -563,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,99 +585,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1527</v>
+        <v>1693</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2">
         <v>979</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1693</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2">
-        <v>979</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2">
-        <v>14</v>
+      <c r="P2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>169.3</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,10 +660,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -742,209 +680,186 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8646484</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9601734</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>8646484</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
-        <v>9601734</v>
+        <v>71062315</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>71062315</v>
+        <v>8961620</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
-        <v>8961620</v>
+        <v>29291128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
-        <v>29291128</v>
+        <v>25934529</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
-        <v>25934529</v>
+        <v>24224554</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
-        <v>24224554</v>
+        <v>5742274</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>93</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5742274</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +869,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,91 +877,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水里社小段00080002地號</t>
   </si>
   <si>
     <t>臺中市龍井區龍目井段水里社小段00080013±也號</t>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,54 +597,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1693</v>
+        <v>1527</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2">
         <v>979</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.1</v>
       </c>
       <c r="Q2" s="2">
+        <v>152.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1693</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>979</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>169.3</v>
       </c>
     </row>
@@ -652,7 +708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,65 +716,65 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8646484</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>9601734</v>
+        <v>8646484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>40</v>
@@ -726,19 +782,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="2">
-        <v>71062315</v>
+        <v>9601734</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>37</v>
@@ -749,22 +805,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
-        <v>8961620</v>
+        <v>71062315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>42</v>
@@ -772,94 +828,117 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>29291128</v>
+        <v>8961620</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
-        <v>25934529</v>
+        <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
-        <v>24224554</v>
+        <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24224554</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>93</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2">
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2">
         <v>5742274</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>42</v>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +948,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -877,53 +956,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -932,13 +1011,36 @@
         <v>51</v>
       </c>
       <c r="E3" s="2">
-        <v>12000000</v>
+        <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -99,45 +99,48 @@
     <t>tmp68961</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>催收款</t>
   </si>
   <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
+    <t>擔保放款</t>
+  </si>
+  <si>
+    <t>黃美貴</t>
+  </si>
+  <si>
     <t>國泰世華銀行臺北市信義區松仁路</t>
   </si>
   <si>
-    <t>5707475</t>
+    <t>華南銀行清水分行臺中市清水區中山路</t>
+  </si>
+  <si>
+    <t>元營建設股份有限公司臺中市沙鹿區北勢東路</t>
   </si>
   <si>
     <t>85年05月30日</t>
   </si>
   <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>97年10月23日</t>
+  </si>
+  <si>
+    <t>85年11月16日</t>
+  </si>
+  <si>
     <t>短期放款</t>
   </si>
   <si>
-    <t>長期擔保放款</t>
-  </si>
-  <si>
-    <t>擔保放款</t>
-  </si>
-  <si>
-    <t>黃美貴</t>
-  </si>
-  <si>
-    <t>華南銀行清水分行臺中市清水區中山路</t>
-  </si>
-  <si>
-    <t>元營建設股份有限公司臺中市沙鹿區北勢東路</t>
-  </si>
-  <si>
-    <t>84年07月08日</t>
-  </si>
-  <si>
-    <t>97年10月23日</t>
-  </si>
-  <si>
-    <t>85年11月16日</t>
-  </si>
-  <si>
     <t>繼承債務</t>
   </si>
   <si>
@@ -150,37 +153,46 @@
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>天台砂石股份有限公司</t>
   </si>
   <si>
+    <t>天馬瀝青股份有限公司</t>
+  </si>
+  <si>
+    <t>僑鴻建設股份有限公司</t>
+  </si>
+  <si>
     <t>臺中市竹林里中山路紅竹巷58號1樓</t>
   </si>
   <si>
-    <t>1676000</t>
+    <t>臺中市港卑路1段229號</t>
+  </si>
+  <si>
+    <t>臺中市埔子里正義路1號</t>
   </si>
   <si>
     <t>87年07月15日</t>
   </si>
   <si>
+    <t>83年03月16日</t>
+  </si>
+  <si>
+    <t>85年07月13日</t>
+  </si>
+  <si>
     <t>合資公司</t>
   </si>
   <si>
-    <t>天馬瀝青股份有限公司</t>
-  </si>
-  <si>
-    <t>僑鴻建設股份有限公司</t>
-  </si>
-  <si>
-    <t>臺中市港卑路1段229號</t>
-  </si>
-  <si>
-    <t>臺中市埔子里正義路1號</t>
-  </si>
-  <si>
-    <t>83年03月16日</t>
-  </si>
-  <si>
-    <t>85年07月13日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -708,67 +720,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5707475</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>979</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>8646484</v>
@@ -777,21 +831,42 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>979</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>9601734</v>
@@ -800,21 +875,42 @@
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>979</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
         <v>71062315</v>
@@ -823,21 +919,42 @@
         <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>979</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>8961620</v>
@@ -846,90 +963,174 @@
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2">
+        <v>979</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2">
         <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2">
+        <v>979</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2">
+        <v>979</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>24224554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2">
+        <v>979</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>5742274</v>
@@ -938,7 +1139,28 @@
         <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2">
+        <v>979</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -948,33 +1170,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>98</v>
       </c>
@@ -982,22 +1225,43 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1676000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>979</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>99</v>
       </c>
@@ -1008,19 +1272,40 @@
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>979</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -1031,16 +1316,37 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>979</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-11-28_財產申報表_tmp68961.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="債務" sheetId="2" r:id="rId2"/>
-    <sheet name="事業投資" sheetId="3" r:id="rId3"/>
+    <sheet name="建物" sheetId="2" r:id="rId2"/>
+    <sheet name="債務" sheetId="3" r:id="rId3"/>
+    <sheet name="事業投資" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>tmp68961</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區屏西路</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>83年10月14日</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>species</t>
@@ -720,6 +733,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>432</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>979</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -728,10 +857,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -772,25 +901,25 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>5707475</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -816,25 +945,25 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>8646484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -860,25 +989,25 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>9601734</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -904,25 +1033,25 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>71062315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -948,25 +1077,25 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>8961620</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -992,25 +1121,25 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -1036,25 +1165,25 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -1080,25 +1209,25 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>24224554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -1124,25 +1253,25 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2">
         <v>5742274</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -1168,7 +1297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -1181,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -1225,22 +1354,22 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>1676000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -1269,22 +1398,22 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -1313,22 +1442,22 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
